--- a/biology/Botanique/Claviceps/Claviceps.xlsx
+++ b/biology/Botanique/Claviceps/Claviceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claviceps[1] est un genre de champignons de la famille des Clavicipitacées. Il parasite les ovaires de graminées, de cypéracées ou de juncacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claviceps est un genre de champignons de la famille des Clavicipitacées. Il parasite les ovaires de graminées, de cypéracées ou de juncacées.
 </t>
         </is>
       </c>
@@ -511,13 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les périthèces sont formés au sein de stromas globuleux denses, portés à l'extrémité de longs pédicelles qui germent sur des sclérotes. Les ascospores sont filiformes. Les conidies sont soit des phyalospores primaires ovales ou arrondies, soit des holoblastospores secondaires de plus grande taille, ovales ou pyriformes. Le mycélium remplace l'ovaire, se branche sur le système vasculaire de la plante au niveau du rachillet mais il n'envahit aucun autre tissu.
 Les espèces du genre Claviceps peuvent être regroupées selon la nature de leurs oligosaccharides. Le groupe où prédominent le glucose et le fructose dans l'exsudat avec C. purpurea, C. grohii, C. fusiformis et C. nigricans, etc. et le groupe où prédominent l'arabinitol et le mannitol avec C. gigantea, C. africana, etc.
 Un groupe intermédiaire contient les deux sortes de sucres avec C.paspali, C. zizaniae, etc.
-Sclérote
-Le sclérote est la structure formée de mycélium compact qui permet au champignon de survivre entre deux phases de parasitisme.  Il renferme des substances de réserve, il est en particulier riche en acide ricinoléique.
 </t>
         </is>
       </c>
@@ -543,12 +555,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sclérote</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sclérote est la structure formée de mycélium compact qui permet au champignon de survivre entre deux phases de parasitisme.  Il renferme des substances de réserve, il est en particulier riche en acide ricinoléique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claviceps</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claviceps</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 octobre 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 octobre 2014) :
 Claviceps africana (Sorghum)
 Claviceps amamiensis
 Claviceps annulata
@@ -602,7 +653,7 @@
 Claviceps yanagawensis
 Claviceps zizaniae (Ehrhartoideae)
 Seuls Claviceps purpurea, Claviceps fusiformis et Claviceps paspali sont véritablement considérés comme toxiques.
-Selon Index Fungorum                                      (23 octobre 2014)[3] :
+Selon Index Fungorum                                      (23 octobre 2014) :
 Claviceps africana Freder., Mantle &amp; De Milliano 1991
 Claviceps amamiensis Tanda 1992
 Claviceps annulata Langdon 1942
@@ -670,31 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Claviceps</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claviceps</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus de 600 espèces des familles des Poaceae (Panicoideae, Chloridoideae, Centothecoideae, Bambusoideae, Pooideae, Arundinoideae), des Juncaceae ou des Cyperaceae sont parasitées.
 La plupart des espèces du genre Claviceps n'attaquent qu'une seule espèce ou un seul genre de plantes, à l'exception notable de Claviceps purpurea qui est polyphage.
